--- a/StructureDefinition-VunsPneumoComposition.xlsx
+++ b/StructureDefinition-VunsPneumoComposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:33:24+02:00</t>
+    <t>2025-05-23T16:57:29+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil pour une Composition Discharge Report en pneumologie</t>
+    <t>Profil pour une Composition Discharge Report en pneumologie dans le cadre du projet Vers Un Souffle Nouveau</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-VunsPneumoComposition.xlsx
+++ b/StructureDefinition-VunsPneumoComposition.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22234" uniqueCount="1275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22234" uniqueCount="1277">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:57:29+02:00</t>
+    <t>2025-05-27T16:55:56+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -576,35 +576,32 @@
     <t>Composition.extension:presentedForm.id</t>
   </si>
   <si>
+    <t>Composition.extension:presentedForm.extension</t>
+  </si>
+  <si>
+    <t>Composition.extension:presentedForm.url</t>
+  </si>
+  <si>
+    <t>http://hl7.eu/fhir/StructureDefinition/presentedForm</t>
+  </si>
+  <si>
+    <t>Composition.extension:presentedForm.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachment
+</t>
+  </si>
+  <si>
+    <t>Composition.extension:presentedForm.value[x].id</t>
+  </si>
+  <si>
+    <t>Composition.extension.value[x].id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Composition.extension:presentedForm.extension</t>
-  </si>
-  <si>
-    <t>Composition.extension:presentedForm.url</t>
-  </si>
-  <si>
-    <t>http://hl7.eu/fhir/StructureDefinition/presentedForm</t>
-  </si>
-  <si>
-    <t>Composition.extension:presentedForm.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attachment
-</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Composition.extension:presentedForm.value[x].id</t>
-  </si>
-  <si>
-    <t>Composition.extension.value[x].id</t>
-  </si>
-  <si>
     <t>Composition.extension:presentedForm.value[x].extension</t>
   </si>
   <si>
@@ -872,6 +869,9 @@
     <t>Business version</t>
   </si>
   <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
     <t>Composition.extension:information-recipient</t>
   </si>
   <si>
@@ -882,7 +882,7 @@
 </t>
   </si>
   <si>
-    <t>Information recipient</t>
+    <t>Composition: Information recipient</t>
   </si>
   <si>
     <t>This extension applies to the Composition resource and is used to represent an intended recipient of the composition.</t>
@@ -1171,7 +1171,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.eu/fhir/base/StructureDefinition/practitioner-eu-core|http://hl7.eu/fhir/base/StructureDefinition/practitionerRole-eu-core|Device|Patient|RelatedPerson|Organization)
+    <t xml:space="preserve">Reference(http://hl7.eu/fhir/base/StructureDefinition/practitioner-eu-core|http://hl7.eu/fhir/base/StructureDefinition/practitionerRole-eu-core|Device|http://hl7.eu/fhir/base/StructureDefinition/organization-eu-core)
 </t>
   </si>
   <si>
@@ -2469,7 +2469,7 @@
     <t>significant results</t>
   </si>
   <si>
-    <t xml:space="preserve">type:resolve()}
+    <t xml:space="preserve">profile:resolve()}
 </t>
   </si>
   <si>
@@ -2492,7 +2492,7 @@
     <t>radResult</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/ips/StructureDefinition/Observation-results-radiology-uv-ips)
+    <t xml:space="preserve">Reference(http://hl7.eu/fhir/hdr/StructureDefinition/observation-imgFinding-eu-hdr)
 </t>
   </si>
   <si>
@@ -2617,7 +2617,7 @@
     <t>Composition.section:sectionPlanOfCare.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.eu/fhir/hdr/StructureDefinition/carePlan-eu-eps|DocumentReference)
+    <t xml:space="preserve">Reference(http://hl7.eu/fhir/hdr/StructureDefinition/carePlan-eu-hdr|DocumentReference)
 </t>
   </si>
   <si>
@@ -2811,6 +2811,10 @@
     <t>It lists the relevant allergies or intolerances (conditions) for that patient, describing the kind of reaction (e.g. rash, anaphylaxis,..); preferably the agents that cause it; and optionally the criticality and the certainty of the allergy.
 At a minimum, it should list currently active and any relevant historical allergies and adverse reactions.
  This entry shall be used to document that no information about allergies is available, or that no allergies are known .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:resolve()}
+</t>
   </si>
   <si>
     <t>Composition.section:sectionAllergies.entry:allergyIntolerance</t>
@@ -2984,7 +2988,7 @@
     <t>sectionPatientHx</t>
   </si>
   <si>
-    <t>Problem list Section</t>
+    <t>Patient history Section</t>
   </si>
   <si>
     <t>This Section describes all aspects of the medical history of the patient even if not pertinent to the current procedure, and may include chief complaint, past medical history, social history, family history, surgical or procedure history, medication history, and other history information. The history may be limited to information pertinent to the current procedure or may be more comprehensive. The history may be reported as a collection of random clinical statements or it may be reported categorically. Categorical report formats may be divided into multiple subsections including Past Medical History, Social History.</t>
@@ -3003,6 +3007,65 @@
   </si>
   <si>
     <t>Composition.section:sectionPatientHx.code</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="35090-0"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionPatientHx.author</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionPatientHx.focus</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionPatientHx.text</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionPatientHx.mode</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionPatientHx.orderedBy</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionPatientHx.entry</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionPatientHx.emptyReason</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionPatientHx.section</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionProblemList</t>
+  </si>
+  <si>
+    <t>sectionProblemList</t>
+  </si>
+  <si>
+    <t>Problem List Section</t>
+  </si>
+  <si>
+    <t>The IPS derived problem section lists and describes clinical problems or conditions currently being monitored for the patient.</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionProblemList.id</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionProblemList.extension</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionProblemList.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionProblemList.title</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionProblemList.code</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -3013,55 +3076,65 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Composition.section:sectionPatientHx.author</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionPatientHx.focus</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionPatientHx.text</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionPatientHx.mode</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionPatientHx.orderedBy</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionPatientHx.entry</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionPatientHx.emptyReason</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionPatientHx.section</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionProblemList</t>
-  </si>
-  <si>
-    <t>sectionProblemList</t>
-  </si>
-  <si>
-    <t>Problem List Section</t>
-  </si>
-  <si>
-    <t>The IPS derived problem section lists and describes clinical problems or conditions currently being monitored for the patient.</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionProblemList.id</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionProblemList.extension</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionProblemList.modifierExtension</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionProblemList.title</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionProblemList.code</t>
+    <t>Composition.section:sectionProblemList.author</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionProblemList.focus</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionProblemList.text</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionProblemList.mode</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionProblemList.orderedBy</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionProblemList.entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.eu/fhir/hdr/StructureDefinition/condition-eu-hdr)
+</t>
+  </si>
+  <si>
+    <t>Conditions the patient suffered in the past.</t>
+  </si>
+  <si>
+    <t>It contains a description of the conditions the patient suffered in the past.</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionProblemList.emptyReason</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionProblemList.section</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionPastIllnessHx</t>
+  </si>
+  <si>
+    <t>sectionPastIllnessHx</t>
+  </si>
+  <si>
+    <t>History of Past Illness Section</t>
+  </si>
+  <si>
+    <t>The History of Past Illness section contains a narrative description and coded entries of the conditions the patient suffered in the past</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionPastIllnessHx.id</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionPastIllnessHx.extension</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionPastIllnessHx.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionPastIllnessHx.title</t>
+  </si>
+  <si>
+    <t>Composition.section:sectionPastIllnessHx.code</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -3070,67 +3143,6 @@
     &lt;code value="11348-0"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionProblemList.author</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionProblemList.focus</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionProblemList.text</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionProblemList.mode</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionProblemList.orderedBy</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionProblemList.entry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.eu/fhir/hdr/StructureDefinition/condition-eu-hdr)
-</t>
-  </si>
-  <si>
-    <t>Conditions the patient suffered in the past.</t>
-  </si>
-  <si>
-    <t>It contains a description of the conditions the patient suffered in the past.</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionProblemList.emptyReason</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionProblemList.section</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionPastIllnessHx</t>
-  </si>
-  <si>
-    <t>sectionPastIllnessHx</t>
-  </si>
-  <si>
-    <t>History of Past Illness Section</t>
-  </si>
-  <si>
-    <t>The History of Past Illness section contains a narrative description and coded entries of the conditions the patient suffered in the past</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionPastIllnessHx.id</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionPastIllnessHx.extension</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionPastIllnessHx.modifierExtension</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionPastIllnessHx.title</t>
-  </si>
-  <si>
-    <t>Composition.section:sectionPastIllnessHx.code</t>
   </si>
   <si>
     <t>Composition.section:sectionPastIllnessHx.author</t>
@@ -3987,7 +3999,7 @@
     <t>Composition.section:sectionAdvanceDirectives.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Consent|DocumentReference)
+    <t xml:space="preserve">Reference(http://hl7.eu/fhir/hdr/StructureDefinition/consent-eu-hdr|DocumentReference)
 </t>
   </si>
   <si>
@@ -6232,7 +6244,7 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>140</v>
@@ -6281,7 +6293,7 @@
         <v>19</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>150</v>
@@ -6347,7 +6359,7 @@
         <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>19</v>
@@ -6370,7 +6382,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>156</v>
@@ -6485,7 +6497,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>160</v>
@@ -6528,7 +6540,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>19</v>
@@ -6602,7 +6614,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>167</v>
@@ -6628,13 +6640,13 @@
         <v>19</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>169</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -6694,7 +6706,7 @@
         <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>101</v>
@@ -6717,10 +6729,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -6743,7 +6755,7 @@
         <v>19</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>150</v>
@@ -6832,14 +6844,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -6861,13 +6873,13 @@
         <v>134</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -6949,10 +6961,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -6978,14 +6990,14 @@
         <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>19</v>
@@ -6998,43 +7010,43 @@
         <v>19</v>
       </c>
       <c r="T22" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="U22" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="Z22" t="s" s="2">
+      <c r="AA22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -7052,7 +7064,7 @@
         <v>19</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>19</v>
@@ -7066,10 +7078,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -7095,14 +7107,14 @@
         <v>109</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>19</v>
@@ -7115,7 +7127,7 @@
         <v>19</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>19</v>
@@ -7151,7 +7163,7 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -7169,7 +7181,7 @@
         <v>19</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>19</v>
@@ -7183,10 +7195,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -7209,19 +7221,19 @@
         <v>19</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>19</v>
@@ -7270,7 +7282,7 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -7288,7 +7300,7 @@
         <v>19</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>19</v>
@@ -7302,10 +7314,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -7328,19 +7340,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>19</v>
@@ -7353,43 +7365,43 @@
         <v>19</v>
       </c>
       <c r="T25" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -7407,7 +7419,7 @@
         <v>19</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>19</v>
@@ -7421,10 +7433,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -7447,19 +7459,19 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>19</v>
@@ -7508,7 +7520,7 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -7526,7 +7538,7 @@
         <v>19</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>19</v>
@@ -7540,10 +7552,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -7566,19 +7578,19 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>19</v>
@@ -7627,7 +7639,7 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -7645,7 +7657,7 @@
         <v>19</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>19</v>
@@ -7659,10 +7671,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -7685,17 +7697,17 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>19</v>
@@ -7708,43 +7720,43 @@
         <v>19</v>
       </c>
       <c r="T28" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -7762,7 +7774,7 @@
         <v>19</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>19</v>
@@ -7776,10 +7788,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -7802,17 +7814,17 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>19</v>
@@ -7861,7 +7873,7 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -7879,7 +7891,7 @@
         <v>19</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>19</v>
@@ -7893,13 +7905,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>133</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>19</v>
@@ -7921,13 +7933,13 @@
         <v>19</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -8010,7 +8022,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>149</v>
@@ -8036,7 +8048,7 @@
         <v>19</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>150</v>
@@ -8125,7 +8137,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>156</v>
@@ -8240,7 +8252,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>160</v>
@@ -8283,7 +8295,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>19</v>
@@ -8357,7 +8369,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>167</v>
@@ -8383,13 +8395,13 @@
         <v>19</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -8566,7 +8578,7 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>140</v>
@@ -8615,7 +8627,7 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>150</v>
@@ -8681,7 +8693,7 @@
         <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>19</v>
@@ -8968,7 +8980,7 @@
         <v>169</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -9028,7 +9040,7 @@
         <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>101</v>
@@ -9058,7 +9070,7 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -9086,7 +9098,7 @@
         <v>288</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>289</v>
@@ -9350,7 +9362,7 @@
         <v>19</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y42" t="s" s="2">
         <v>306</v>
@@ -9906,7 +9918,7 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>359</v>
@@ -10142,7 +10154,7 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>379</v>
@@ -10294,7 +10306,7 @@
         <v>19</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y50" t="s" s="2">
         <v>389</v>
@@ -10495,7 +10507,7 @@
         <v>19</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>150</v>
@@ -10591,7 +10603,7 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -10613,13 +10625,13 @@
         <v>134</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -10736,7 +10748,7 @@
         <v>407</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>289</v>
@@ -10881,7 +10893,7 @@
         <v>19</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y55" t="s" s="2">
         <v>413</v>
@@ -10963,7 +10975,7 @@
         <v>19</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>418</v>
@@ -11433,7 +11445,7 @@
         <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>150</v>
@@ -11529,7 +11541,7 @@
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -11551,13 +11563,13 @@
         <v>134</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -11674,7 +11686,7 @@
         <v>407</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>289</v>
@@ -11819,7 +11831,7 @@
         <v>19</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y63" t="s" s="2">
         <v>454</v>
@@ -12135,7 +12147,7 @@
         <v>19</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>150</v>
@@ -12231,7 +12243,7 @@
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -12253,13 +12265,13 @@
         <v>134</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -12376,7 +12388,7 @@
         <v>407</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>289</v>
@@ -12946,7 +12958,7 @@
         <v>19</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>150</v>
@@ -13042,7 +13054,7 @@
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -13064,13 +13076,13 @@
         <v>134</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -13187,7 +13199,7 @@
         <v>407</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>289</v>
@@ -13297,7 +13309,7 @@
         <v>19</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>507</v>
@@ -13923,7 +13935,7 @@
         <v>19</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y81" t="s" s="2">
         <v>538</v>
@@ -14596,7 +14608,7 @@
         <v>19</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L87" t="s" s="2">
         <v>150</v>
@@ -14692,7 +14704,7 @@
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -14714,13 +14726,13 @@
         <v>134</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -14837,7 +14849,7 @@
         <v>407</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>289</v>
@@ -14947,7 +14959,7 @@
         <v>19</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>507</v>
@@ -15404,7 +15416,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>89</v>
@@ -15573,7 +15585,7 @@
         <v>19</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y95" t="s" s="2">
         <v>538</v>
@@ -16244,7 +16256,7 @@
         <v>19</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L101" t="s" s="2">
         <v>150</v>
@@ -16340,7 +16352,7 @@
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -16362,13 +16374,13 @@
         <v>134</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -16485,7 +16497,7 @@
         <v>407</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>289</v>
@@ -16595,7 +16607,7 @@
         <v>19</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>507</v>
@@ -17052,7 +17064,7 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>89</v>
@@ -17221,7 +17233,7 @@
         <v>19</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y109" t="s" s="2">
         <v>538</v>
@@ -17892,7 +17904,7 @@
         <v>19</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L115" t="s" s="2">
         <v>150</v>
@@ -17988,7 +18000,7 @@
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -18010,13 +18022,13 @@
         <v>134</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -18133,7 +18145,7 @@
         <v>407</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>289</v>
@@ -18243,7 +18255,7 @@
         <v>19</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L118" t="s" s="2">
         <v>507</v>
@@ -18700,7 +18712,7 @@
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>89</v>
@@ -18869,7 +18881,7 @@
         <v>19</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y123" t="s" s="2">
         <v>538</v>
@@ -19540,7 +19552,7 @@
         <v>19</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L129" t="s" s="2">
         <v>150</v>
@@ -19636,7 +19648,7 @@
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
@@ -19658,13 +19670,13 @@
         <v>134</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
@@ -19781,7 +19793,7 @@
         <v>407</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>289</v>
@@ -19891,7 +19903,7 @@
         <v>19</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L132" t="s" s="2">
         <v>507</v>
@@ -20348,7 +20360,7 @@
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>89</v>
@@ -20517,7 +20529,7 @@
         <v>19</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y137" t="s" s="2">
         <v>538</v>
@@ -21188,7 +21200,7 @@
         <v>19</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L143" t="s" s="2">
         <v>150</v>
@@ -21284,7 +21296,7 @@
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
@@ -21306,13 +21318,13 @@
         <v>134</v>
       </c>
       <c r="L144" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M144" t="s" s="2">
+      <c r="N144" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
@@ -21429,7 +21441,7 @@
         <v>407</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>289</v>
@@ -21539,7 +21551,7 @@
         <v>19</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L146" t="s" s="2">
         <v>507</v>
@@ -21996,7 +22008,7 @@
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>89</v>
@@ -22165,7 +22177,7 @@
         <v>19</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y151" t="s" s="2">
         <v>538</v>
@@ -22836,7 +22848,7 @@
         <v>19</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L157" t="s" s="2">
         <v>150</v>
@@ -22932,7 +22944,7 @@
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -22954,13 +22966,13 @@
         <v>134</v>
       </c>
       <c r="L158" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M158" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -23077,7 +23089,7 @@
         <v>407</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>289</v>
@@ -23187,7 +23199,7 @@
         <v>19</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L160" t="s" s="2">
         <v>507</v>
@@ -23644,7 +23656,7 @@
       </c>
       <c r="E164" s="2"/>
       <c r="F164" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>89</v>
@@ -23813,7 +23825,7 @@
         <v>19</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y165" t="s" s="2">
         <v>538</v>
@@ -24484,7 +24496,7 @@
         <v>19</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L171" t="s" s="2">
         <v>150</v>
@@ -24580,7 +24592,7 @@
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" t="s" s="2">
@@ -24602,13 +24614,13 @@
         <v>134</v>
       </c>
       <c r="L172" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M172" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M172" t="s" s="2">
+      <c r="N172" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O172" s="2"/>
       <c r="P172" t="s" s="2">
@@ -24725,7 +24737,7 @@
         <v>407</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>289</v>
@@ -24835,7 +24847,7 @@
         <v>19</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L174" t="s" s="2">
         <v>507</v>
@@ -25292,7 +25304,7 @@
       </c>
       <c r="E178" s="2"/>
       <c r="F178" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G178" t="s" s="2">
         <v>89</v>
@@ -25461,7 +25473,7 @@
         <v>19</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y179" t="s" s="2">
         <v>538</v>
@@ -26132,7 +26144,7 @@
         <v>19</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L185" t="s" s="2">
         <v>150</v>
@@ -26228,7 +26240,7 @@
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" t="s" s="2">
@@ -26250,13 +26262,13 @@
         <v>134</v>
       </c>
       <c r="L186" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M186" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M186" t="s" s="2">
+      <c r="N186" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N186" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O186" s="2"/>
       <c r="P186" t="s" s="2">
@@ -26373,7 +26385,7 @@
         <v>407</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>289</v>
@@ -26483,7 +26495,7 @@
         <v>19</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L188" t="s" s="2">
         <v>507</v>
@@ -26940,7 +26952,7 @@
       </c>
       <c r="E192" s="2"/>
       <c r="F192" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G192" t="s" s="2">
         <v>89</v>
@@ -27109,7 +27121,7 @@
         <v>19</v>
       </c>
       <c r="X193" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y193" t="s" s="2">
         <v>538</v>
@@ -27780,7 +27792,7 @@
         <v>19</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L199" t="s" s="2">
         <v>150</v>
@@ -27876,7 +27888,7 @@
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" t="s" s="2">
@@ -27898,13 +27910,13 @@
         <v>134</v>
       </c>
       <c r="L200" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M200" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M200" t="s" s="2">
+      <c r="N200" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N200" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O200" s="2"/>
       <c r="P200" t="s" s="2">
@@ -28021,7 +28033,7 @@
         <v>407</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>289</v>
@@ -28131,7 +28143,7 @@
         <v>19</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L202" t="s" s="2">
         <v>507</v>
@@ -28588,7 +28600,7 @@
       </c>
       <c r="E206" s="2"/>
       <c r="F206" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G206" t="s" s="2">
         <v>89</v>
@@ -28757,7 +28769,7 @@
         <v>19</v>
       </c>
       <c r="X207" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y207" t="s" s="2">
         <v>538</v>
@@ -29428,7 +29440,7 @@
         <v>19</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L213" t="s" s="2">
         <v>150</v>
@@ -29524,7 +29536,7 @@
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" t="s" s="2">
@@ -29546,13 +29558,13 @@
         <v>134</v>
       </c>
       <c r="L214" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M214" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M214" t="s" s="2">
+      <c r="N214" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N214" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O214" s="2"/>
       <c r="P214" t="s" s="2">
@@ -29669,7 +29681,7 @@
         <v>407</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>289</v>
@@ -29779,7 +29791,7 @@
         <v>19</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L216" t="s" s="2">
         <v>507</v>
@@ -30236,7 +30248,7 @@
       </c>
       <c r="E220" s="2"/>
       <c r="F220" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G220" t="s" s="2">
         <v>89</v>
@@ -30405,7 +30417,7 @@
         <v>19</v>
       </c>
       <c r="X221" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y221" t="s" s="2">
         <v>538</v>
@@ -31076,7 +31088,7 @@
         <v>19</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L227" t="s" s="2">
         <v>150</v>
@@ -31172,7 +31184,7 @@
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" t="s" s="2">
@@ -31194,13 +31206,13 @@
         <v>134</v>
       </c>
       <c r="L228" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M228" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M228" t="s" s="2">
+      <c r="N228" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N228" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O228" s="2"/>
       <c r="P228" t="s" s="2">
@@ -31317,7 +31329,7 @@
         <v>407</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O229" t="s" s="2">
         <v>289</v>
@@ -31427,7 +31439,7 @@
         <v>19</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L230" t="s" s="2">
         <v>507</v>
@@ -31884,7 +31896,7 @@
       </c>
       <c r="E234" s="2"/>
       <c r="F234" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G234" t="s" s="2">
         <v>89</v>
@@ -32053,7 +32065,7 @@
         <v>19</v>
       </c>
       <c r="X235" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y235" t="s" s="2">
         <v>538</v>
@@ -32960,7 +32972,7 @@
         <v>19</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L243" t="s" s="2">
         <v>150</v>
@@ -33056,7 +33068,7 @@
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" t="s" s="2">
@@ -33078,13 +33090,13 @@
         <v>134</v>
       </c>
       <c r="L244" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M244" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M244" t="s" s="2">
+      <c r="N244" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N244" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O244" s="2"/>
       <c r="P244" t="s" s="2">
@@ -33201,7 +33213,7 @@
         <v>407</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O245" t="s" s="2">
         <v>289</v>
@@ -33311,7 +33323,7 @@
         <v>19</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L246" t="s" s="2">
         <v>507</v>
@@ -33768,7 +33780,7 @@
       </c>
       <c r="E250" s="2"/>
       <c r="F250" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G250" t="s" s="2">
         <v>89</v>
@@ -33937,7 +33949,7 @@
         <v>19</v>
       </c>
       <c r="X251" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y251" t="s" s="2">
         <v>538</v>
@@ -34608,7 +34620,7 @@
         <v>19</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L257" t="s" s="2">
         <v>150</v>
@@ -34704,7 +34716,7 @@
       </c>
       <c r="C258" s="2"/>
       <c r="D258" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E258" s="2"/>
       <c r="F258" t="s" s="2">
@@ -34726,13 +34738,13 @@
         <v>134</v>
       </c>
       <c r="L258" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M258" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M258" t="s" s="2">
+      <c r="N258" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N258" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O258" s="2"/>
       <c r="P258" t="s" s="2">
@@ -34849,7 +34861,7 @@
         <v>407</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>289</v>
@@ -34959,7 +34971,7 @@
         <v>19</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L260" t="s" s="2">
         <v>507</v>
@@ -35416,7 +35428,7 @@
       </c>
       <c r="E264" s="2"/>
       <c r="F264" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G264" t="s" s="2">
         <v>89</v>
@@ -35585,7 +35597,7 @@
         <v>19</v>
       </c>
       <c r="X265" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y265" t="s" s="2">
         <v>538</v>
@@ -36256,7 +36268,7 @@
         <v>19</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L271" t="s" s="2">
         <v>150</v>
@@ -36352,7 +36364,7 @@
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E272" s="2"/>
       <c r="F272" t="s" s="2">
@@ -36374,13 +36386,13 @@
         <v>134</v>
       </c>
       <c r="L272" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M272" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M272" t="s" s="2">
+      <c r="N272" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N272" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O272" s="2"/>
       <c r="P272" t="s" s="2">
@@ -36497,7 +36509,7 @@
         <v>407</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>289</v>
@@ -36607,7 +36619,7 @@
         <v>19</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L274" t="s" s="2">
         <v>507</v>
@@ -37064,7 +37076,7 @@
       </c>
       <c r="E278" s="2"/>
       <c r="F278" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G278" t="s" s="2">
         <v>89</v>
@@ -37233,7 +37245,7 @@
         <v>19</v>
       </c>
       <c r="X279" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y279" t="s" s="2">
         <v>538</v>
@@ -37904,7 +37916,7 @@
         <v>19</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L285" t="s" s="2">
         <v>150</v>
@@ -38000,7 +38012,7 @@
       </c>
       <c r="C286" s="2"/>
       <c r="D286" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E286" s="2"/>
       <c r="F286" t="s" s="2">
@@ -38022,13 +38034,13 @@
         <v>134</v>
       </c>
       <c r="L286" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M286" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M286" t="s" s="2">
+      <c r="N286" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N286" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O286" s="2"/>
       <c r="P286" t="s" s="2">
@@ -38145,7 +38157,7 @@
         <v>407</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O287" t="s" s="2">
         <v>289</v>
@@ -38255,7 +38267,7 @@
         <v>19</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L288" t="s" s="2">
         <v>507</v>
@@ -38712,7 +38724,7 @@
       </c>
       <c r="E292" s="2"/>
       <c r="F292" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G292" t="s" s="2">
         <v>89</v>
@@ -38881,7 +38893,7 @@
         <v>19</v>
       </c>
       <c r="X293" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y293" t="s" s="2">
         <v>538</v>
@@ -39552,7 +39564,7 @@
         <v>19</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L299" t="s" s="2">
         <v>150</v>
@@ -39648,7 +39660,7 @@
       </c>
       <c r="C300" s="2"/>
       <c r="D300" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E300" s="2"/>
       <c r="F300" t="s" s="2">
@@ -39670,13 +39682,13 @@
         <v>134</v>
       </c>
       <c r="L300" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M300" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M300" t="s" s="2">
+      <c r="N300" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N300" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O300" s="2"/>
       <c r="P300" t="s" s="2">
@@ -39793,7 +39805,7 @@
         <v>407</v>
       </c>
       <c r="N301" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O301" t="s" s="2">
         <v>289</v>
@@ -39903,7 +39915,7 @@
         <v>19</v>
       </c>
       <c r="K302" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L302" t="s" s="2">
         <v>507</v>
@@ -40360,7 +40372,7 @@
       </c>
       <c r="E306" s="2"/>
       <c r="F306" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G306" t="s" s="2">
         <v>89</v>
@@ -40529,7 +40541,7 @@
         <v>19</v>
       </c>
       <c r="X307" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y307" t="s" s="2">
         <v>538</v>
@@ -40777,7 +40789,7 @@
         <v>19</v>
       </c>
       <c r="AB309" t="s" s="2">
-        <v>774</v>
+        <v>877</v>
       </c>
       <c r="AC309" s="2"/>
       <c r="AD309" t="s" s="2">
@@ -40819,13 +40831,13 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>549</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D310" t="s" s="2">
         <v>19</v>
@@ -40847,13 +40859,13 @@
         <v>19</v>
       </c>
       <c r="K310" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="N310" t="s" s="2">
         <v>552</v>
@@ -40938,7 +40950,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>556</v>
@@ -41057,7 +41069,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>564</v>
@@ -41174,13 +41186,13 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>494</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D313" t="s" s="2">
         <v>19</v>
@@ -41205,10 +41217,10 @@
         <v>394</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="N313" s="2"/>
       <c r="O313" s="2"/>
@@ -41291,7 +41303,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>502</v>
@@ -41317,7 +41329,7 @@
         <v>19</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L314" t="s" s="2">
         <v>150</v>
@@ -41406,14 +41418,14 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>503</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E315" s="2"/>
       <c r="F315" t="s" s="2">
@@ -41435,13 +41447,13 @@
         <v>134</v>
       </c>
       <c r="L315" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M315" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M315" t="s" s="2">
+      <c r="N315" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N315" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O315" s="2"/>
       <c r="P315" t="s" s="2">
@@ -41523,7 +41535,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>504</v>
@@ -41558,7 +41570,7 @@
         <v>407</v>
       </c>
       <c r="N316" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O316" t="s" s="2">
         <v>289</v>
@@ -41642,7 +41654,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>505</v>
@@ -41668,7 +41680,7 @@
         <v>19</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L317" t="s" s="2">
         <v>507</v>
@@ -41761,7 +41773,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>511</v>
@@ -41809,7 +41821,7 @@
         <v>19</v>
       </c>
       <c r="S318" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="T318" t="s" s="2">
         <v>19</v>
@@ -41880,7 +41892,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>518</v>
@@ -41997,7 +42009,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>522</v>
@@ -42114,7 +42126,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>527</v>
@@ -42125,7 +42137,7 @@
       </c>
       <c r="E321" s="2"/>
       <c r="F321" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G321" t="s" s="2">
         <v>89</v>
@@ -42231,7 +42243,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>533</v>
@@ -42294,7 +42306,7 @@
         <v>19</v>
       </c>
       <c r="X322" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y322" t="s" s="2">
         <v>538</v>
@@ -42350,7 +42362,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>541</v>
@@ -42469,7 +42481,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>549</v>
@@ -42498,10 +42510,10 @@
         <v>490</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="M324" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="N324" t="s" s="2">
         <v>552</v>
@@ -42542,7 +42554,7 @@
         <v>19</v>
       </c>
       <c r="AB324" t="s" s="2">
-        <v>774</v>
+        <v>877</v>
       </c>
       <c r="AC324" s="2"/>
       <c r="AD324" t="s" s="2">
@@ -42584,13 +42596,13 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>549</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D325" t="s" s="2">
         <v>19</v>
@@ -42612,13 +42624,13 @@
         <v>19</v>
       </c>
       <c r="K325" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="N325" t="s" s="2">
         <v>552</v>
@@ -42703,7 +42715,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>556</v>
@@ -42822,7 +42834,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>564</v>
@@ -42939,13 +42951,13 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>494</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D328" t="s" s="2">
         <v>19</v>
@@ -42970,10 +42982,10 @@
         <v>394</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="M328" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="N328" s="2"/>
       <c r="O328" s="2"/>
@@ -43056,7 +43068,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>502</v>
@@ -43082,7 +43094,7 @@
         <v>19</v>
       </c>
       <c r="K329" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L329" t="s" s="2">
         <v>150</v>
@@ -43171,14 +43183,14 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>503</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E330" s="2"/>
       <c r="F330" t="s" s="2">
@@ -43200,13 +43212,13 @@
         <v>134</v>
       </c>
       <c r="L330" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M330" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M330" t="s" s="2">
+      <c r="N330" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N330" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O330" s="2"/>
       <c r="P330" t="s" s="2">
@@ -43288,7 +43300,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>504</v>
@@ -43323,7 +43335,7 @@
         <v>407</v>
       </c>
       <c r="N331" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O331" t="s" s="2">
         <v>289</v>
@@ -43407,7 +43419,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>505</v>
@@ -43433,7 +43445,7 @@
         <v>19</v>
       </c>
       <c r="K332" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L332" t="s" s="2">
         <v>507</v>
@@ -43526,7 +43538,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>511</v>
@@ -43574,7 +43586,7 @@
         <v>19</v>
       </c>
       <c r="S333" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="T333" t="s" s="2">
         <v>19</v>
@@ -43645,7 +43657,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>518</v>
@@ -43762,7 +43774,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>522</v>
@@ -43879,7 +43891,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>527</v>
@@ -43890,7 +43902,7 @@
       </c>
       <c r="E336" s="2"/>
       <c r="F336" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G336" t="s" s="2">
         <v>89</v>
@@ -43996,7 +44008,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>533</v>
@@ -44059,7 +44071,7 @@
         <v>19</v>
       </c>
       <c r="X337" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y337" t="s" s="2">
         <v>538</v>
@@ -44115,7 +44127,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>541</v>
@@ -44234,7 +44246,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>549</v>
@@ -44260,7 +44272,7 @@
         <v>19</v>
       </c>
       <c r="K339" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="L339" t="s" s="2">
         <v>550</v>
@@ -44351,7 +44363,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>556</v>
@@ -44470,7 +44482,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>564</v>
@@ -44587,13 +44599,13 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>494</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D342" t="s" s="2">
         <v>19</v>
@@ -44618,10 +44630,10 @@
         <v>394</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="N342" s="2"/>
       <c r="O342" s="2"/>
@@ -44704,7 +44716,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>502</v>
@@ -44730,7 +44742,7 @@
         <v>19</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L343" t="s" s="2">
         <v>150</v>
@@ -44819,14 +44831,14 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>503</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E344" s="2"/>
       <c r="F344" t="s" s="2">
@@ -44848,13 +44860,13 @@
         <v>134</v>
       </c>
       <c r="L344" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M344" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M344" t="s" s="2">
+      <c r="N344" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N344" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O344" s="2"/>
       <c r="P344" t="s" s="2">
@@ -44936,7 +44948,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>504</v>
@@ -44971,7 +44983,7 @@
         <v>407</v>
       </c>
       <c r="N345" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O345" t="s" s="2">
         <v>289</v>
@@ -45055,7 +45067,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>505</v>
@@ -45081,7 +45093,7 @@
         <v>19</v>
       </c>
       <c r="K346" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L346" t="s" s="2">
         <v>507</v>
@@ -45174,7 +45186,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>511</v>
@@ -45222,7 +45234,7 @@
         <v>19</v>
       </c>
       <c r="S347" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="T347" t="s" s="2">
         <v>19</v>
@@ -45293,7 +45305,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>518</v>
@@ -45410,7 +45422,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>522</v>
@@ -45527,7 +45539,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>527</v>
@@ -45538,7 +45550,7 @@
       </c>
       <c r="E350" s="2"/>
       <c r="F350" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G350" t="s" s="2">
         <v>89</v>
@@ -45644,7 +45656,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>533</v>
@@ -45707,7 +45719,7 @@
         <v>19</v>
       </c>
       <c r="X351" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y351" t="s" s="2">
         <v>538</v>
@@ -45763,7 +45775,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>541</v>
@@ -45882,7 +45894,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>549</v>
@@ -45999,7 +46011,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>556</v>
@@ -46118,7 +46130,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>564</v>
@@ -46235,13 +46247,13 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>494</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D356" t="s" s="2">
         <v>19</v>
@@ -46266,10 +46278,10 @@
         <v>394</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="N356" s="2"/>
       <c r="O356" s="2"/>
@@ -46352,7 +46364,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>502</v>
@@ -46378,7 +46390,7 @@
         <v>19</v>
       </c>
       <c r="K357" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L357" t="s" s="2">
         <v>150</v>
@@ -46467,14 +46479,14 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>503</v>
       </c>
       <c r="C358" s="2"/>
       <c r="D358" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E358" s="2"/>
       <c r="F358" t="s" s="2">
@@ -46496,13 +46508,13 @@
         <v>134</v>
       </c>
       <c r="L358" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M358" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M358" t="s" s="2">
+      <c r="N358" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N358" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O358" s="2"/>
       <c r="P358" t="s" s="2">
@@ -46584,7 +46596,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>504</v>
@@ -46619,7 +46631,7 @@
         <v>407</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O359" t="s" s="2">
         <v>289</v>
@@ -46703,7 +46715,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>505</v>
@@ -46729,7 +46741,7 @@
         <v>19</v>
       </c>
       <c r="K360" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L360" t="s" s="2">
         <v>507</v>
@@ -46822,7 +46834,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>511</v>
@@ -46870,7 +46882,7 @@
         <v>19</v>
       </c>
       <c r="S361" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="T361" t="s" s="2">
         <v>19</v>
@@ -46941,7 +46953,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>518</v>
@@ -47058,7 +47070,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>522</v>
@@ -47175,7 +47187,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>527</v>
@@ -47186,7 +47198,7 @@
       </c>
       <c r="E364" s="2"/>
       <c r="F364" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G364" t="s" s="2">
         <v>89</v>
@@ -47292,7 +47304,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>533</v>
@@ -47355,7 +47367,7 @@
         <v>19</v>
       </c>
       <c r="X365" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y365" t="s" s="2">
         <v>538</v>
@@ -47411,7 +47423,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>541</v>
@@ -47530,7 +47542,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>549</v>
@@ -47556,13 +47568,13 @@
         <v>19</v>
       </c>
       <c r="K367" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="L367" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="M367" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="N367" t="s" s="2">
         <v>552</v>
@@ -47647,7 +47659,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>556</v>
@@ -47766,7 +47778,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>564</v>
@@ -47883,13 +47895,13 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>494</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D370" t="s" s="2">
         <v>19</v>
@@ -47914,10 +47926,10 @@
         <v>394</v>
       </c>
       <c r="L370" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="M370" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="N370" s="2"/>
       <c r="O370" s="2"/>
@@ -48000,7 +48012,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>502</v>
@@ -48026,7 +48038,7 @@
         <v>19</v>
       </c>
       <c r="K371" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L371" t="s" s="2">
         <v>150</v>
@@ -48115,14 +48127,14 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>503</v>
       </c>
       <c r="C372" s="2"/>
       <c r="D372" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E372" s="2"/>
       <c r="F372" t="s" s="2">
@@ -48144,13 +48156,13 @@
         <v>134</v>
       </c>
       <c r="L372" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M372" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M372" t="s" s="2">
+      <c r="N372" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N372" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O372" s="2"/>
       <c r="P372" t="s" s="2">
@@ -48232,7 +48244,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>504</v>
@@ -48267,7 +48279,7 @@
         <v>407</v>
       </c>
       <c r="N373" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O373" t="s" s="2">
         <v>289</v>
@@ -48351,7 +48363,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>505</v>
@@ -48377,7 +48389,7 @@
         <v>19</v>
       </c>
       <c r="K374" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L374" t="s" s="2">
         <v>507</v>
@@ -48470,7 +48482,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>511</v>
@@ -48518,7 +48530,7 @@
         <v>19</v>
       </c>
       <c r="S375" t="s" s="2">
-        <v>952</v>
+        <v>974</v>
       </c>
       <c r="T375" t="s" s="2">
         <v>19</v>
@@ -48589,7 +48601,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>518</v>
@@ -48706,7 +48718,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>522</v>
@@ -48823,7 +48835,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>527</v>
@@ -48834,7 +48846,7 @@
       </c>
       <c r="E378" s="2"/>
       <c r="F378" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G378" t="s" s="2">
         <v>89</v>
@@ -48940,7 +48952,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>533</v>
@@ -49003,7 +49015,7 @@
         <v>19</v>
       </c>
       <c r="X379" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y379" t="s" s="2">
         <v>538</v>
@@ -49059,7 +49071,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>541</v>
@@ -49178,7 +49190,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>549</v>
@@ -49204,13 +49216,13 @@
         <v>19</v>
       </c>
       <c r="K381" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="L381" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="M381" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="N381" t="s" s="2">
         <v>552</v>
@@ -49295,7 +49307,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>556</v>
@@ -49414,7 +49426,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>564</v>
@@ -49531,13 +49543,13 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>494</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="D384" t="s" s="2">
         <v>19</v>
@@ -49562,10 +49574,10 @@
         <v>394</v>
       </c>
       <c r="L384" t="s" s="2">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="M384" t="s" s="2">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="N384" s="2"/>
       <c r="O384" s="2"/>
@@ -49648,7 +49660,7 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>502</v>
@@ -49674,7 +49686,7 @@
         <v>19</v>
       </c>
       <c r="K385" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L385" t="s" s="2">
         <v>150</v>
@@ -49763,14 +49775,14 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>503</v>
       </c>
       <c r="C386" s="2"/>
       <c r="D386" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E386" s="2"/>
       <c r="F386" t="s" s="2">
@@ -49792,13 +49804,13 @@
         <v>134</v>
       </c>
       <c r="L386" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M386" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M386" t="s" s="2">
+      <c r="N386" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N386" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O386" s="2"/>
       <c r="P386" t="s" s="2">
@@ -49880,7 +49892,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>504</v>
@@ -49915,7 +49927,7 @@
         <v>407</v>
       </c>
       <c r="N387" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O387" t="s" s="2">
         <v>289</v>
@@ -49999,7 +50011,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>505</v>
@@ -50025,7 +50037,7 @@
         <v>19</v>
       </c>
       <c r="K388" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L388" t="s" s="2">
         <v>507</v>
@@ -50118,7 +50130,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>511</v>
@@ -50166,7 +50178,7 @@
         <v>19</v>
       </c>
       <c r="S389" t="s" s="2">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="T389" t="s" s="2">
         <v>19</v>
@@ -50237,7 +50249,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>518</v>
@@ -50354,7 +50366,7 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>522</v>
@@ -50471,7 +50483,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>527</v>
@@ -50482,7 +50494,7 @@
       </c>
       <c r="E392" s="2"/>
       <c r="F392" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G392" t="s" s="2">
         <v>89</v>
@@ -50588,7 +50600,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>533</v>
@@ -50651,7 +50663,7 @@
         <v>19</v>
       </c>
       <c r="X393" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y393" t="s" s="2">
         <v>538</v>
@@ -50707,7 +50719,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>541</v>
@@ -50826,7 +50838,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>549</v>
@@ -50943,7 +50955,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>556</v>
@@ -51062,7 +51074,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>564</v>
@@ -51179,13 +51191,13 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>494</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D398" t="s" s="2">
         <v>19</v>
@@ -51210,10 +51222,10 @@
         <v>394</v>
       </c>
       <c r="L398" t="s" s="2">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="M398" t="s" s="2">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="N398" s="2"/>
       <c r="O398" s="2"/>
@@ -51296,7 +51308,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>502</v>
@@ -51322,7 +51334,7 @@
         <v>19</v>
       </c>
       <c r="K399" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L399" t="s" s="2">
         <v>150</v>
@@ -51411,14 +51423,14 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>503</v>
       </c>
       <c r="C400" s="2"/>
       <c r="D400" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E400" s="2"/>
       <c r="F400" t="s" s="2">
@@ -51440,13 +51452,13 @@
         <v>134</v>
       </c>
       <c r="L400" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M400" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M400" t="s" s="2">
+      <c r="N400" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N400" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O400" s="2"/>
       <c r="P400" t="s" s="2">
@@ -51528,7 +51540,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>504</v>
@@ -51563,7 +51575,7 @@
         <v>407</v>
       </c>
       <c r="N401" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O401" t="s" s="2">
         <v>289</v>
@@ -51647,7 +51659,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>505</v>
@@ -51673,7 +51685,7 @@
         <v>19</v>
       </c>
       <c r="K402" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L402" t="s" s="2">
         <v>507</v>
@@ -51766,7 +51778,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>511</v>
@@ -51814,7 +51826,7 @@
         <v>19</v>
       </c>
       <c r="S403" t="s" s="2">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="T403" t="s" s="2">
         <v>19</v>
@@ -51885,7 +51897,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>518</v>
@@ -52002,7 +52014,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>522</v>
@@ -52119,7 +52131,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>527</v>
@@ -52130,7 +52142,7 @@
       </c>
       <c r="E406" s="2"/>
       <c r="F406" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G406" t="s" s="2">
         <v>89</v>
@@ -52236,7 +52248,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>533</v>
@@ -52299,7 +52311,7 @@
         <v>19</v>
       </c>
       <c r="X407" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y407" t="s" s="2">
         <v>538</v>
@@ -52355,7 +52367,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>541</v>
@@ -52474,7 +52486,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>549</v>
@@ -52503,10 +52515,10 @@
         <v>715</v>
       </c>
       <c r="L409" t="s" s="2">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="M409" t="s" s="2">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="N409" t="s" s="2">
         <v>552</v>
@@ -52591,7 +52603,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>556</v>
@@ -52710,7 +52722,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>564</v>
@@ -52827,13 +52839,13 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>494</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D412" t="s" s="2">
         <v>19</v>
@@ -52858,10 +52870,10 @@
         <v>394</v>
       </c>
       <c r="L412" t="s" s="2">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="M412" t="s" s="2">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="N412" s="2"/>
       <c r="O412" s="2"/>
@@ -52944,7 +52956,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>502</v>
@@ -52970,7 +52982,7 @@
         <v>19</v>
       </c>
       <c r="K413" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L413" t="s" s="2">
         <v>150</v>
@@ -53059,14 +53071,14 @@
     </row>
     <row r="414" hidden="true">
       <c r="A414" t="s" s="2">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>503</v>
       </c>
       <c r="C414" s="2"/>
       <c r="D414" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E414" s="2"/>
       <c r="F414" t="s" s="2">
@@ -53088,13 +53100,13 @@
         <v>134</v>
       </c>
       <c r="L414" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M414" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M414" t="s" s="2">
+      <c r="N414" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N414" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O414" s="2"/>
       <c r="P414" t="s" s="2">
@@ -53176,7 +53188,7 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>504</v>
@@ -53211,7 +53223,7 @@
         <v>407</v>
       </c>
       <c r="N415" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O415" t="s" s="2">
         <v>289</v>
@@ -53295,7 +53307,7 @@
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>505</v>
@@ -53321,7 +53333,7 @@
         <v>19</v>
       </c>
       <c r="K416" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L416" t="s" s="2">
         <v>507</v>
@@ -53414,7 +53426,7 @@
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>511</v>
@@ -53462,7 +53474,7 @@
         <v>19</v>
       </c>
       <c r="S417" t="s" s="2">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="T417" t="s" s="2">
         <v>19</v>
@@ -53533,7 +53545,7 @@
     </row>
     <row r="418" hidden="true">
       <c r="A418" t="s" s="2">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>518</v>
@@ -53650,7 +53662,7 @@
     </row>
     <row r="419" hidden="true">
       <c r="A419" t="s" s="2">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>522</v>
@@ -53767,7 +53779,7 @@
     </row>
     <row r="420" hidden="true">
       <c r="A420" t="s" s="2">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>527</v>
@@ -53778,7 +53790,7 @@
       </c>
       <c r="E420" s="2"/>
       <c r="F420" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G420" t="s" s="2">
         <v>89</v>
@@ -53884,7 +53896,7 @@
     </row>
     <row r="421" hidden="true">
       <c r="A421" t="s" s="2">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>533</v>
@@ -53947,7 +53959,7 @@
         <v>19</v>
       </c>
       <c r="X421" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y421" t="s" s="2">
         <v>538</v>
@@ -54003,7 +54015,7 @@
     </row>
     <row r="422" hidden="true">
       <c r="A422" t="s" s="2">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>541</v>
@@ -54122,7 +54134,7 @@
     </row>
     <row r="423" hidden="true">
       <c r="A423" t="s" s="2">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>549</v>
@@ -54148,7 +54160,7 @@
         <v>19</v>
       </c>
       <c r="K423" t="s" s="2">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="L423" t="s" s="2">
         <v>550</v>
@@ -54239,7 +54251,7 @@
     </row>
     <row r="424" hidden="true">
       <c r="A424" t="s" s="2">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>556</v>
@@ -54358,7 +54370,7 @@
     </row>
     <row r="425" hidden="true">
       <c r="A425" t="s" s="2">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>564</v>
@@ -54475,13 +54487,13 @@
     </row>
     <row r="426" hidden="true">
       <c r="A426" t="s" s="2">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>494</v>
       </c>
       <c r="C426" t="s" s="2">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="D426" t="s" s="2">
         <v>19</v>
@@ -54506,10 +54518,10 @@
         <v>394</v>
       </c>
       <c r="L426" t="s" s="2">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="M426" t="s" s="2">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="N426" s="2"/>
       <c r="O426" s="2"/>
@@ -54592,7 +54604,7 @@
     </row>
     <row r="427" hidden="true">
       <c r="A427" t="s" s="2">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>502</v>
@@ -54618,7 +54630,7 @@
         <v>19</v>
       </c>
       <c r="K427" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L427" t="s" s="2">
         <v>150</v>
@@ -54707,14 +54719,14 @@
     </row>
     <row r="428" hidden="true">
       <c r="A428" t="s" s="2">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B428" t="s" s="2">
         <v>503</v>
       </c>
       <c r="C428" s="2"/>
       <c r="D428" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E428" s="2"/>
       <c r="F428" t="s" s="2">
@@ -54736,13 +54748,13 @@
         <v>134</v>
       </c>
       <c r="L428" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M428" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M428" t="s" s="2">
+      <c r="N428" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N428" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O428" s="2"/>
       <c r="P428" t="s" s="2">
@@ -54824,7 +54836,7 @@
     </row>
     <row r="429" hidden="true">
       <c r="A429" t="s" s="2">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B429" t="s" s="2">
         <v>504</v>
@@ -54859,7 +54871,7 @@
         <v>407</v>
       </c>
       <c r="N429" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O429" t="s" s="2">
         <v>289</v>
@@ -54943,7 +54955,7 @@
     </row>
     <row r="430" hidden="true">
       <c r="A430" t="s" s="2">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>505</v>
@@ -54969,7 +54981,7 @@
         <v>19</v>
       </c>
       <c r="K430" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L430" t="s" s="2">
         <v>507</v>
@@ -55062,7 +55074,7 @@
     </row>
     <row r="431" hidden="true">
       <c r="A431" t="s" s="2">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B431" t="s" s="2">
         <v>511</v>
@@ -55110,7 +55122,7 @@
         <v>19</v>
       </c>
       <c r="S431" t="s" s="2">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="T431" t="s" s="2">
         <v>19</v>
@@ -55181,7 +55193,7 @@
     </row>
     <row r="432" hidden="true">
       <c r="A432" t="s" s="2">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>518</v>
@@ -55298,7 +55310,7 @@
     </row>
     <row r="433" hidden="true">
       <c r="A433" t="s" s="2">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B433" t="s" s="2">
         <v>522</v>
@@ -55415,7 +55427,7 @@
     </row>
     <row r="434" hidden="true">
       <c r="A434" t="s" s="2">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B434" t="s" s="2">
         <v>527</v>
@@ -55426,7 +55438,7 @@
       </c>
       <c r="E434" s="2"/>
       <c r="F434" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G434" t="s" s="2">
         <v>89</v>
@@ -55532,7 +55544,7 @@
     </row>
     <row r="435" hidden="true">
       <c r="A435" t="s" s="2">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B435" t="s" s="2">
         <v>533</v>
@@ -55595,7 +55607,7 @@
         <v>19</v>
       </c>
       <c r="X435" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y435" t="s" s="2">
         <v>538</v>
@@ -55651,7 +55663,7 @@
     </row>
     <row r="436" hidden="true">
       <c r="A436" t="s" s="2">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B436" t="s" s="2">
         <v>541</v>
@@ -55770,7 +55782,7 @@
     </row>
     <row r="437" hidden="true">
       <c r="A437" t="s" s="2">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B437" t="s" s="2">
         <v>549</v>
@@ -55796,13 +55808,13 @@
         <v>19</v>
       </c>
       <c r="K437" t="s" s="2">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="L437" t="s" s="2">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="M437" t="s" s="2">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="N437" t="s" s="2">
         <v>552</v>
@@ -55887,7 +55899,7 @@
     </row>
     <row r="438" hidden="true">
       <c r="A438" t="s" s="2">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B438" t="s" s="2">
         <v>556</v>
@@ -56006,7 +56018,7 @@
     </row>
     <row r="439" hidden="true">
       <c r="A439" t="s" s="2">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B439" t="s" s="2">
         <v>564</v>
@@ -56123,13 +56135,13 @@
     </row>
     <row r="440" hidden="true">
       <c r="A440" t="s" s="2">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B440" t="s" s="2">
         <v>494</v>
       </c>
       <c r="C440" t="s" s="2">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="D440" t="s" s="2">
         <v>19</v>
@@ -56154,10 +56166,10 @@
         <v>394</v>
       </c>
       <c r="L440" t="s" s="2">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="M440" t="s" s="2">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="N440" s="2"/>
       <c r="O440" s="2"/>
@@ -56240,7 +56252,7 @@
     </row>
     <row r="441" hidden="true">
       <c r="A441" t="s" s="2">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B441" t="s" s="2">
         <v>502</v>
@@ -56266,7 +56278,7 @@
         <v>19</v>
       </c>
       <c r="K441" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L441" t="s" s="2">
         <v>150</v>
@@ -56355,14 +56367,14 @@
     </row>
     <row r="442" hidden="true">
       <c r="A442" t="s" s="2">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B442" t="s" s="2">
         <v>503</v>
       </c>
       <c r="C442" s="2"/>
       <c r="D442" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E442" s="2"/>
       <c r="F442" t="s" s="2">
@@ -56384,13 +56396,13 @@
         <v>134</v>
       </c>
       <c r="L442" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M442" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M442" t="s" s="2">
+      <c r="N442" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N442" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O442" s="2"/>
       <c r="P442" t="s" s="2">
@@ -56472,7 +56484,7 @@
     </row>
     <row r="443" hidden="true">
       <c r="A443" t="s" s="2">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B443" t="s" s="2">
         <v>504</v>
@@ -56507,7 +56519,7 @@
         <v>407</v>
       </c>
       <c r="N443" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O443" t="s" s="2">
         <v>289</v>
@@ -56591,7 +56603,7 @@
     </row>
     <row r="444" hidden="true">
       <c r="A444" t="s" s="2">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="B444" t="s" s="2">
         <v>505</v>
@@ -56617,7 +56629,7 @@
         <v>19</v>
       </c>
       <c r="K444" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L444" t="s" s="2">
         <v>507</v>
@@ -56710,7 +56722,7 @@
     </row>
     <row r="445" hidden="true">
       <c r="A445" t="s" s="2">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B445" t="s" s="2">
         <v>511</v>
@@ -56758,7 +56770,7 @@
         <v>19</v>
       </c>
       <c r="S445" t="s" s="2">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="T445" t="s" s="2">
         <v>19</v>
@@ -56829,7 +56841,7 @@
     </row>
     <row r="446" hidden="true">
       <c r="A446" t="s" s="2">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B446" t="s" s="2">
         <v>518</v>
@@ -56946,7 +56958,7 @@
     </row>
     <row r="447" hidden="true">
       <c r="A447" t="s" s="2">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B447" t="s" s="2">
         <v>522</v>
@@ -57063,7 +57075,7 @@
     </row>
     <row r="448" hidden="true">
       <c r="A448" t="s" s="2">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B448" t="s" s="2">
         <v>527</v>
@@ -57074,7 +57086,7 @@
       </c>
       <c r="E448" s="2"/>
       <c r="F448" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G448" t="s" s="2">
         <v>89</v>
@@ -57180,7 +57192,7 @@
     </row>
     <row r="449" hidden="true">
       <c r="A449" t="s" s="2">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B449" t="s" s="2">
         <v>533</v>
@@ -57243,7 +57255,7 @@
         <v>19</v>
       </c>
       <c r="X449" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y449" t="s" s="2">
         <v>538</v>
@@ -57299,7 +57311,7 @@
     </row>
     <row r="450" hidden="true">
       <c r="A450" t="s" s="2">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B450" t="s" s="2">
         <v>541</v>
@@ -57418,7 +57430,7 @@
     </row>
     <row r="451" hidden="true">
       <c r="A451" t="s" s="2">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B451" t="s" s="2">
         <v>549</v>
@@ -57444,7 +57456,7 @@
         <v>19</v>
       </c>
       <c r="K451" t="s" s="2">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="L451" t="s" s="2">
         <v>550</v>
@@ -57535,7 +57547,7 @@
     </row>
     <row r="452" hidden="true">
       <c r="A452" t="s" s="2">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B452" t="s" s="2">
         <v>556</v>
@@ -57654,7 +57666,7 @@
     </row>
     <row r="453" hidden="true">
       <c r="A453" t="s" s="2">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B453" t="s" s="2">
         <v>564</v>
@@ -57771,13 +57783,13 @@
     </row>
     <row r="454" hidden="true">
       <c r="A454" t="s" s="2">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B454" t="s" s="2">
         <v>494</v>
       </c>
       <c r="C454" t="s" s="2">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="D454" t="s" s="2">
         <v>19</v>
@@ -57802,10 +57814,10 @@
         <v>394</v>
       </c>
       <c r="L454" t="s" s="2">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="M454" t="s" s="2">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="N454" s="2"/>
       <c r="O454" s="2"/>
@@ -57888,7 +57900,7 @@
     </row>
     <row r="455" hidden="true">
       <c r="A455" t="s" s="2">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B455" t="s" s="2">
         <v>502</v>
@@ -57914,7 +57926,7 @@
         <v>19</v>
       </c>
       <c r="K455" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L455" t="s" s="2">
         <v>150</v>
@@ -58003,14 +58015,14 @@
     </row>
     <row r="456" hidden="true">
       <c r="A456" t="s" s="2">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B456" t="s" s="2">
         <v>503</v>
       </c>
       <c r="C456" s="2"/>
       <c r="D456" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E456" s="2"/>
       <c r="F456" t="s" s="2">
@@ -58032,13 +58044,13 @@
         <v>134</v>
       </c>
       <c r="L456" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M456" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M456" t="s" s="2">
+      <c r="N456" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N456" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O456" s="2"/>
       <c r="P456" t="s" s="2">
@@ -58120,7 +58132,7 @@
     </row>
     <row r="457" hidden="true">
       <c r="A457" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B457" t="s" s="2">
         <v>504</v>
@@ -58155,7 +58167,7 @@
         <v>407</v>
       </c>
       <c r="N457" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O457" t="s" s="2">
         <v>289</v>
@@ -58239,7 +58251,7 @@
     </row>
     <row r="458" hidden="true">
       <c r="A458" t="s" s="2">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B458" t="s" s="2">
         <v>505</v>
@@ -58265,7 +58277,7 @@
         <v>19</v>
       </c>
       <c r="K458" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L458" t="s" s="2">
         <v>507</v>
@@ -58358,7 +58370,7 @@
     </row>
     <row r="459" hidden="true">
       <c r="A459" t="s" s="2">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B459" t="s" s="2">
         <v>511</v>
@@ -58406,7 +58418,7 @@
         <v>19</v>
       </c>
       <c r="S459" t="s" s="2">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="T459" t="s" s="2">
         <v>19</v>
@@ -58477,7 +58489,7 @@
     </row>
     <row r="460" hidden="true">
       <c r="A460" t="s" s="2">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="B460" t="s" s="2">
         <v>518</v>
@@ -58594,7 +58606,7 @@
     </row>
     <row r="461" hidden="true">
       <c r="A461" t="s" s="2">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="B461" t="s" s="2">
         <v>522</v>
@@ -58711,7 +58723,7 @@
     </row>
     <row r="462" hidden="true">
       <c r="A462" t="s" s="2">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="B462" t="s" s="2">
         <v>527</v>
@@ -58722,7 +58734,7 @@
       </c>
       <c r="E462" s="2"/>
       <c r="F462" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G462" t="s" s="2">
         <v>89</v>
@@ -58828,7 +58840,7 @@
     </row>
     <row r="463" hidden="true">
       <c r="A463" t="s" s="2">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="B463" t="s" s="2">
         <v>533</v>
@@ -58891,7 +58903,7 @@
         <v>19</v>
       </c>
       <c r="X463" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y463" t="s" s="2">
         <v>538</v>
@@ -58947,7 +58959,7 @@
     </row>
     <row r="464" hidden="true">
       <c r="A464" t="s" s="2">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B464" t="s" s="2">
         <v>541</v>
@@ -59066,7 +59078,7 @@
     </row>
     <row r="465" hidden="true">
       <c r="A465" t="s" s="2">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="B465" t="s" s="2">
         <v>549</v>
@@ -59092,13 +59104,13 @@
         <v>19</v>
       </c>
       <c r="K465" t="s" s="2">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="L465" t="s" s="2">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="M465" t="s" s="2">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="N465" t="s" s="2">
         <v>552</v>
@@ -59183,7 +59195,7 @@
     </row>
     <row r="466" hidden="true">
       <c r="A466" t="s" s="2">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="B466" t="s" s="2">
         <v>556</v>
@@ -59302,7 +59314,7 @@
     </row>
     <row r="467" hidden="true">
       <c r="A467" t="s" s="2">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="B467" t="s" s="2">
         <v>564</v>
@@ -59419,13 +59431,13 @@
     </row>
     <row r="468" hidden="true">
       <c r="A468" t="s" s="2">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="B468" t="s" s="2">
         <v>494</v>
       </c>
       <c r="C468" t="s" s="2">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="D468" t="s" s="2">
         <v>19</v>
@@ -59450,10 +59462,10 @@
         <v>394</v>
       </c>
       <c r="L468" t="s" s="2">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="M468" t="s" s="2">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="N468" s="2"/>
       <c r="O468" s="2"/>
@@ -59536,7 +59548,7 @@
     </row>
     <row r="469" hidden="true">
       <c r="A469" t="s" s="2">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="B469" t="s" s="2">
         <v>502</v>
@@ -59562,7 +59574,7 @@
         <v>19</v>
       </c>
       <c r="K469" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L469" t="s" s="2">
         <v>150</v>
@@ -59651,14 +59663,14 @@
     </row>
     <row r="470" hidden="true">
       <c r="A470" t="s" s="2">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="B470" t="s" s="2">
         <v>503</v>
       </c>
       <c r="C470" s="2"/>
       <c r="D470" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E470" s="2"/>
       <c r="F470" t="s" s="2">
@@ -59680,13 +59692,13 @@
         <v>134</v>
       </c>
       <c r="L470" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M470" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M470" t="s" s="2">
+      <c r="N470" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N470" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O470" s="2"/>
       <c r="P470" t="s" s="2">
@@ -59768,7 +59780,7 @@
     </row>
     <row r="471" hidden="true">
       <c r="A471" t="s" s="2">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B471" t="s" s="2">
         <v>504</v>
@@ -59803,7 +59815,7 @@
         <v>407</v>
       </c>
       <c r="N471" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O471" t="s" s="2">
         <v>289</v>
@@ -59887,7 +59899,7 @@
     </row>
     <row r="472" hidden="true">
       <c r="A472" t="s" s="2">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="B472" t="s" s="2">
         <v>505</v>
@@ -59913,7 +59925,7 @@
         <v>19</v>
       </c>
       <c r="K472" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L472" t="s" s="2">
         <v>507</v>
@@ -60006,7 +60018,7 @@
     </row>
     <row r="473" hidden="true">
       <c r="A473" t="s" s="2">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="B473" t="s" s="2">
         <v>511</v>
@@ -60054,7 +60066,7 @@
         <v>19</v>
       </c>
       <c r="S473" t="s" s="2">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="T473" t="s" s="2">
         <v>19</v>
@@ -60125,7 +60137,7 @@
     </row>
     <row r="474" hidden="true">
       <c r="A474" t="s" s="2">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="B474" t="s" s="2">
         <v>518</v>
@@ -60242,7 +60254,7 @@
     </row>
     <row r="475" hidden="true">
       <c r="A475" t="s" s="2">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="B475" t="s" s="2">
         <v>522</v>
@@ -60359,7 +60371,7 @@
     </row>
     <row r="476" hidden="true">
       <c r="A476" t="s" s="2">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="B476" t="s" s="2">
         <v>527</v>
@@ -60370,7 +60382,7 @@
       </c>
       <c r="E476" s="2"/>
       <c r="F476" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G476" t="s" s="2">
         <v>89</v>
@@ -60476,7 +60488,7 @@
     </row>
     <row r="477" hidden="true">
       <c r="A477" t="s" s="2">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="B477" t="s" s="2">
         <v>533</v>
@@ -60539,7 +60551,7 @@
         <v>19</v>
       </c>
       <c r="X477" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y477" t="s" s="2">
         <v>538</v>
@@ -60595,7 +60607,7 @@
     </row>
     <row r="478" hidden="true">
       <c r="A478" t="s" s="2">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="B478" t="s" s="2">
         <v>541</v>
@@ -60714,7 +60726,7 @@
     </row>
     <row r="479" hidden="true">
       <c r="A479" t="s" s="2">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="B479" t="s" s="2">
         <v>549</v>
@@ -60740,13 +60752,13 @@
         <v>19</v>
       </c>
       <c r="K479" t="s" s="2">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="L479" t="s" s="2">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="M479" t="s" s="2">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="N479" t="s" s="2">
         <v>552</v>
@@ -60787,7 +60799,7 @@
         <v>19</v>
       </c>
       <c r="AB479" t="s" s="2">
-        <v>774</v>
+        <v>877</v>
       </c>
       <c r="AC479" s="2"/>
       <c r="AD479" t="s" s="2">
@@ -60829,13 +60841,13 @@
     </row>
     <row r="480" hidden="true">
       <c r="A480" t="s" s="2">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="B480" t="s" s="2">
         <v>549</v>
       </c>
       <c r="C480" t="s" s="2">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="D480" t="s" s="2">
         <v>19</v>
@@ -60857,13 +60869,13 @@
         <v>19</v>
       </c>
       <c r="K480" t="s" s="2">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="L480" t="s" s="2">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="M480" t="s" s="2">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="N480" t="s" s="2">
         <v>552</v>
@@ -60948,7 +60960,7 @@
     </row>
     <row r="481" hidden="true">
       <c r="A481" t="s" s="2">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="B481" t="s" s="2">
         <v>556</v>
@@ -61067,7 +61079,7 @@
     </row>
     <row r="482" hidden="true">
       <c r="A482" t="s" s="2">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="B482" t="s" s="2">
         <v>564</v>
@@ -61184,13 +61196,13 @@
     </row>
     <row r="483" hidden="true">
       <c r="A483" t="s" s="2">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="B483" t="s" s="2">
         <v>494</v>
       </c>
       <c r="C483" t="s" s="2">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="D483" t="s" s="2">
         <v>19</v>
@@ -61215,10 +61227,10 @@
         <v>394</v>
       </c>
       <c r="L483" t="s" s="2">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="M483" t="s" s="2">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="N483" s="2"/>
       <c r="O483" s="2"/>
@@ -61301,7 +61313,7 @@
     </row>
     <row r="484" hidden="true">
       <c r="A484" t="s" s="2">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="B484" t="s" s="2">
         <v>502</v>
@@ -61327,7 +61339,7 @@
         <v>19</v>
       </c>
       <c r="K484" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L484" t="s" s="2">
         <v>150</v>
@@ -61416,14 +61428,14 @@
     </row>
     <row r="485" hidden="true">
       <c r="A485" t="s" s="2">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="B485" t="s" s="2">
         <v>503</v>
       </c>
       <c r="C485" s="2"/>
       <c r="D485" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E485" s="2"/>
       <c r="F485" t="s" s="2">
@@ -61445,13 +61457,13 @@
         <v>134</v>
       </c>
       <c r="L485" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M485" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M485" t="s" s="2">
+      <c r="N485" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N485" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O485" s="2"/>
       <c r="P485" t="s" s="2">
@@ -61533,7 +61545,7 @@
     </row>
     <row r="486" hidden="true">
       <c r="A486" t="s" s="2">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="B486" t="s" s="2">
         <v>504</v>
@@ -61568,7 +61580,7 @@
         <v>407</v>
       </c>
       <c r="N486" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O486" t="s" s="2">
         <v>289</v>
@@ -61652,7 +61664,7 @@
     </row>
     <row r="487" hidden="true">
       <c r="A487" t="s" s="2">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="B487" t="s" s="2">
         <v>505</v>
@@ -61678,7 +61690,7 @@
         <v>19</v>
       </c>
       <c r="K487" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L487" t="s" s="2">
         <v>507</v>
@@ -61771,7 +61783,7 @@
     </row>
     <row r="488" hidden="true">
       <c r="A488" t="s" s="2">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="B488" t="s" s="2">
         <v>511</v>
@@ -61819,7 +61831,7 @@
         <v>19</v>
       </c>
       <c r="S488" t="s" s="2">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="T488" t="s" s="2">
         <v>19</v>
@@ -61890,7 +61902,7 @@
     </row>
     <row r="489" hidden="true">
       <c r="A489" t="s" s="2">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="B489" t="s" s="2">
         <v>518</v>
@@ -62007,7 +62019,7 @@
     </row>
     <row r="490" hidden="true">
       <c r="A490" t="s" s="2">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="B490" t="s" s="2">
         <v>522</v>
@@ -62124,7 +62136,7 @@
     </row>
     <row r="491" hidden="true">
       <c r="A491" t="s" s="2">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="B491" t="s" s="2">
         <v>527</v>
@@ -62135,7 +62147,7 @@
       </c>
       <c r="E491" s="2"/>
       <c r="F491" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G491" t="s" s="2">
         <v>89</v>
@@ -62241,7 +62253,7 @@
     </row>
     <row r="492" hidden="true">
       <c r="A492" t="s" s="2">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="B492" t="s" s="2">
         <v>533</v>
@@ -62304,7 +62316,7 @@
         <v>19</v>
       </c>
       <c r="X492" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y492" t="s" s="2">
         <v>538</v>
@@ -62360,7 +62372,7 @@
     </row>
     <row r="493" hidden="true">
       <c r="A493" t="s" s="2">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="B493" t="s" s="2">
         <v>541</v>
@@ -62479,7 +62491,7 @@
     </row>
     <row r="494" hidden="true">
       <c r="A494" t="s" s="2">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B494" t="s" s="2">
         <v>549</v>
@@ -62505,7 +62517,7 @@
         <v>19</v>
       </c>
       <c r="K494" t="s" s="2">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="L494" t="s" s="2">
         <v>550</v>
@@ -62596,7 +62608,7 @@
     </row>
     <row r="495" hidden="true">
       <c r="A495" t="s" s="2">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="B495" t="s" s="2">
         <v>556</v>
@@ -62715,7 +62727,7 @@
     </row>
     <row r="496" hidden="true">
       <c r="A496" t="s" s="2">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="B496" t="s" s="2">
         <v>564</v>
@@ -62832,13 +62844,13 @@
     </row>
     <row r="497" hidden="true">
       <c r="A497" t="s" s="2">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="B497" t="s" s="2">
         <v>494</v>
       </c>
       <c r="C497" t="s" s="2">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="D497" t="s" s="2">
         <v>19</v>
@@ -62863,10 +62875,10 @@
         <v>394</v>
       </c>
       <c r="L497" t="s" s="2">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="M497" t="s" s="2">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="N497" s="2"/>
       <c r="O497" s="2"/>
@@ -62949,7 +62961,7 @@
     </row>
     <row r="498" hidden="true">
       <c r="A498" t="s" s="2">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="B498" t="s" s="2">
         <v>502</v>
@@ -62975,7 +62987,7 @@
         <v>19</v>
       </c>
       <c r="K498" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L498" t="s" s="2">
         <v>150</v>
@@ -63064,14 +63076,14 @@
     </row>
     <row r="499" hidden="true">
       <c r="A499" t="s" s="2">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="B499" t="s" s="2">
         <v>503</v>
       </c>
       <c r="C499" s="2"/>
       <c r="D499" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E499" s="2"/>
       <c r="F499" t="s" s="2">
@@ -63093,13 +63105,13 @@
         <v>134</v>
       </c>
       <c r="L499" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M499" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M499" t="s" s="2">
+      <c r="N499" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N499" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O499" s="2"/>
       <c r="P499" t="s" s="2">
@@ -63181,7 +63193,7 @@
     </row>
     <row r="500" hidden="true">
       <c r="A500" t="s" s="2">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="B500" t="s" s="2">
         <v>504</v>
@@ -63216,7 +63228,7 @@
         <v>407</v>
       </c>
       <c r="N500" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O500" t="s" s="2">
         <v>289</v>
@@ -63300,7 +63312,7 @@
     </row>
     <row r="501" hidden="true">
       <c r="A501" t="s" s="2">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="B501" t="s" s="2">
         <v>505</v>
@@ -63326,7 +63338,7 @@
         <v>19</v>
       </c>
       <c r="K501" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L501" t="s" s="2">
         <v>507</v>
@@ -63419,7 +63431,7 @@
     </row>
     <row r="502" hidden="true">
       <c r="A502" t="s" s="2">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="B502" t="s" s="2">
         <v>511</v>
@@ -63467,7 +63479,7 @@
         <v>19</v>
       </c>
       <c r="S502" t="s" s="2">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="T502" t="s" s="2">
         <v>19</v>
@@ -63538,7 +63550,7 @@
     </row>
     <row r="503" hidden="true">
       <c r="A503" t="s" s="2">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="B503" t="s" s="2">
         <v>518</v>
@@ -63655,7 +63667,7 @@
     </row>
     <row r="504" hidden="true">
       <c r="A504" t="s" s="2">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="B504" t="s" s="2">
         <v>522</v>
@@ -63772,7 +63784,7 @@
     </row>
     <row r="505" hidden="true">
       <c r="A505" t="s" s="2">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="B505" t="s" s="2">
         <v>527</v>
@@ -63783,7 +63795,7 @@
       </c>
       <c r="E505" s="2"/>
       <c r="F505" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G505" t="s" s="2">
         <v>89</v>
@@ -63889,7 +63901,7 @@
     </row>
     <row r="506" hidden="true">
       <c r="A506" t="s" s="2">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="B506" t="s" s="2">
         <v>533</v>
@@ -63952,7 +63964,7 @@
         <v>19</v>
       </c>
       <c r="X506" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y506" t="s" s="2">
         <v>538</v>
@@ -64008,7 +64020,7 @@
     </row>
     <row r="507" hidden="true">
       <c r="A507" t="s" s="2">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="B507" t="s" s="2">
         <v>541</v>
@@ -64127,7 +64139,7 @@
     </row>
     <row r="508" hidden="true">
       <c r="A508" t="s" s="2">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B508" t="s" s="2">
         <v>549</v>
@@ -64153,7 +64165,7 @@
         <v>19</v>
       </c>
       <c r="K508" t="s" s="2">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="L508" t="s" s="2">
         <v>550</v>
@@ -64244,7 +64256,7 @@
     </row>
     <row r="509" hidden="true">
       <c r="A509" t="s" s="2">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="B509" t="s" s="2">
         <v>556</v>
@@ -64363,7 +64375,7 @@
     </row>
     <row r="510" hidden="true">
       <c r="A510" t="s" s="2">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="B510" t="s" s="2">
         <v>564</v>
@@ -64480,13 +64492,13 @@
     </row>
     <row r="511" hidden="true">
       <c r="A511" t="s" s="2">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="B511" t="s" s="2">
         <v>494</v>
       </c>
       <c r="C511" t="s" s="2">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="D511" t="s" s="2">
         <v>19</v>
@@ -64511,10 +64523,10 @@
         <v>394</v>
       </c>
       <c r="L511" t="s" s="2">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="M511" t="s" s="2">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="N511" s="2"/>
       <c r="O511" s="2"/>
@@ -64597,7 +64609,7 @@
     </row>
     <row r="512" hidden="true">
       <c r="A512" t="s" s="2">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="B512" t="s" s="2">
         <v>502</v>
@@ -64623,7 +64635,7 @@
         <v>19</v>
       </c>
       <c r="K512" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L512" t="s" s="2">
         <v>150</v>
@@ -64712,14 +64724,14 @@
     </row>
     <row r="513" hidden="true">
       <c r="A513" t="s" s="2">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B513" t="s" s="2">
         <v>503</v>
       </c>
       <c r="C513" s="2"/>
       <c r="D513" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E513" s="2"/>
       <c r="F513" t="s" s="2">
@@ -64741,13 +64753,13 @@
         <v>134</v>
       </c>
       <c r="L513" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M513" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M513" t="s" s="2">
+      <c r="N513" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N513" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O513" s="2"/>
       <c r="P513" t="s" s="2">
@@ -64829,7 +64841,7 @@
     </row>
     <row r="514" hidden="true">
       <c r="A514" t="s" s="2">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B514" t="s" s="2">
         <v>504</v>
@@ -64864,7 +64876,7 @@
         <v>407</v>
       </c>
       <c r="N514" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O514" t="s" s="2">
         <v>289</v>
@@ -64948,7 +64960,7 @@
     </row>
     <row r="515" hidden="true">
       <c r="A515" t="s" s="2">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="B515" t="s" s="2">
         <v>505</v>
@@ -64974,7 +64986,7 @@
         <v>19</v>
       </c>
       <c r="K515" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L515" t="s" s="2">
         <v>507</v>
@@ -65067,7 +65079,7 @@
     </row>
     <row r="516" hidden="true">
       <c r="A516" t="s" s="2">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="B516" t="s" s="2">
         <v>511</v>
@@ -65115,7 +65127,7 @@
         <v>19</v>
       </c>
       <c r="S516" t="s" s="2">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="T516" t="s" s="2">
         <v>19</v>
@@ -65186,7 +65198,7 @@
     </row>
     <row r="517" hidden="true">
       <c r="A517" t="s" s="2">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="B517" t="s" s="2">
         <v>518</v>
@@ -65303,7 +65315,7 @@
     </row>
     <row r="518" hidden="true">
       <c r="A518" t="s" s="2">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="B518" t="s" s="2">
         <v>522</v>
@@ -65420,7 +65432,7 @@
     </row>
     <row r="519" hidden="true">
       <c r="A519" t="s" s="2">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="B519" t="s" s="2">
         <v>527</v>
@@ -65431,7 +65443,7 @@
       </c>
       <c r="E519" s="2"/>
       <c r="F519" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G519" t="s" s="2">
         <v>89</v>
@@ -65537,7 +65549,7 @@
     </row>
     <row r="520" hidden="true">
       <c r="A520" t="s" s="2">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="B520" t="s" s="2">
         <v>533</v>
@@ -65600,7 +65612,7 @@
         <v>19</v>
       </c>
       <c r="X520" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y520" t="s" s="2">
         <v>538</v>
@@ -65656,7 +65668,7 @@
     </row>
     <row r="521" hidden="true">
       <c r="A521" t="s" s="2">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="B521" t="s" s="2">
         <v>541</v>
@@ -65775,7 +65787,7 @@
     </row>
     <row r="522" hidden="true">
       <c r="A522" t="s" s="2">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="B522" t="s" s="2">
         <v>549</v>
@@ -65801,7 +65813,7 @@
         <v>19</v>
       </c>
       <c r="K522" t="s" s="2">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="L522" t="s" s="2">
         <v>550</v>
@@ -65892,7 +65904,7 @@
     </row>
     <row r="523" hidden="true">
       <c r="A523" t="s" s="2">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="B523" t="s" s="2">
         <v>556</v>
@@ -66011,7 +66023,7 @@
     </row>
     <row r="524" hidden="true">
       <c r="A524" t="s" s="2">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="B524" t="s" s="2">
         <v>564</v>
@@ -66128,13 +66140,13 @@
     </row>
     <row r="525" hidden="true">
       <c r="A525" t="s" s="2">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="B525" t="s" s="2">
         <v>494</v>
       </c>
       <c r="C525" t="s" s="2">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="D525" t="s" s="2">
         <v>19</v>
@@ -66159,10 +66171,10 @@
         <v>394</v>
       </c>
       <c r="L525" t="s" s="2">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="M525" t="s" s="2">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="N525" s="2"/>
       <c r="O525" s="2"/>
@@ -66245,7 +66257,7 @@
     </row>
     <row r="526" hidden="true">
       <c r="A526" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B526" t="s" s="2">
         <v>502</v>
@@ -66271,7 +66283,7 @@
         <v>19</v>
       </c>
       <c r="K526" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L526" t="s" s="2">
         <v>150</v>
@@ -66360,14 +66372,14 @@
     </row>
     <row r="527" hidden="true">
       <c r="A527" t="s" s="2">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="B527" t="s" s="2">
         <v>503</v>
       </c>
       <c r="C527" s="2"/>
       <c r="D527" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E527" s="2"/>
       <c r="F527" t="s" s="2">
@@ -66389,13 +66401,13 @@
         <v>134</v>
       </c>
       <c r="L527" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M527" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M527" t="s" s="2">
+      <c r="N527" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N527" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O527" s="2"/>
       <c r="P527" t="s" s="2">
@@ -66477,7 +66489,7 @@
     </row>
     <row r="528" hidden="true">
       <c r="A528" t="s" s="2">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="B528" t="s" s="2">
         <v>504</v>
@@ -66512,7 +66524,7 @@
         <v>407</v>
       </c>
       <c r="N528" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O528" t="s" s="2">
         <v>289</v>
@@ -66596,7 +66608,7 @@
     </row>
     <row r="529" hidden="true">
       <c r="A529" t="s" s="2">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="B529" t="s" s="2">
         <v>505</v>
@@ -66622,7 +66634,7 @@
         <v>19</v>
       </c>
       <c r="K529" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L529" t="s" s="2">
         <v>507</v>
@@ -66715,7 +66727,7 @@
     </row>
     <row r="530" hidden="true">
       <c r="A530" t="s" s="2">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="B530" t="s" s="2">
         <v>511</v>
@@ -66763,7 +66775,7 @@
         <v>19</v>
       </c>
       <c r="S530" t="s" s="2">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="T530" t="s" s="2">
         <v>19</v>
@@ -66834,7 +66846,7 @@
     </row>
     <row r="531" hidden="true">
       <c r="A531" t="s" s="2">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="B531" t="s" s="2">
         <v>518</v>
@@ -66951,7 +66963,7 @@
     </row>
     <row r="532" hidden="true">
       <c r="A532" t="s" s="2">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="B532" t="s" s="2">
         <v>522</v>
@@ -67068,7 +67080,7 @@
     </row>
     <row r="533" hidden="true">
       <c r="A533" t="s" s="2">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="B533" t="s" s="2">
         <v>527</v>
@@ -67079,7 +67091,7 @@
       </c>
       <c r="E533" s="2"/>
       <c r="F533" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G533" t="s" s="2">
         <v>89</v>
@@ -67185,7 +67197,7 @@
     </row>
     <row r="534" hidden="true">
       <c r="A534" t="s" s="2">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="B534" t="s" s="2">
         <v>533</v>
@@ -67248,7 +67260,7 @@
         <v>19</v>
       </c>
       <c r="X534" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y534" t="s" s="2">
         <v>538</v>
@@ -67304,7 +67316,7 @@
     </row>
     <row r="535" hidden="true">
       <c r="A535" t="s" s="2">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="B535" t="s" s="2">
         <v>541</v>
@@ -67423,7 +67435,7 @@
     </row>
     <row r="536" hidden="true">
       <c r="A536" t="s" s="2">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="B536" t="s" s="2">
         <v>549</v>
@@ -67449,7 +67461,7 @@
         <v>19</v>
       </c>
       <c r="K536" t="s" s="2">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="L536" t="s" s="2">
         <v>550</v>
@@ -67540,7 +67552,7 @@
     </row>
     <row r="537" hidden="true">
       <c r="A537" t="s" s="2">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="B537" t="s" s="2">
         <v>556</v>
@@ -67659,7 +67671,7 @@
     </row>
     <row r="538" hidden="true">
       <c r="A538" t="s" s="2">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="B538" t="s" s="2">
         <v>564</v>
@@ -67776,13 +67788,13 @@
     </row>
     <row r="539" hidden="true">
       <c r="A539" t="s" s="2">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="B539" t="s" s="2">
         <v>494</v>
       </c>
       <c r="C539" t="s" s="2">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="D539" t="s" s="2">
         <v>19</v>
@@ -67807,10 +67819,10 @@
         <v>394</v>
       </c>
       <c r="L539" t="s" s="2">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="M539" t="s" s="2">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="N539" s="2"/>
       <c r="O539" s="2"/>
@@ -67893,7 +67905,7 @@
     </row>
     <row r="540" hidden="true">
       <c r="A540" t="s" s="2">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="B540" t="s" s="2">
         <v>502</v>
@@ -67919,7 +67931,7 @@
         <v>19</v>
       </c>
       <c r="K540" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L540" t="s" s="2">
         <v>150</v>
@@ -68008,14 +68020,14 @@
     </row>
     <row r="541" hidden="true">
       <c r="A541" t="s" s="2">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="B541" t="s" s="2">
         <v>503</v>
       </c>
       <c r="C541" s="2"/>
       <c r="D541" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E541" s="2"/>
       <c r="F541" t="s" s="2">
@@ -68037,13 +68049,13 @@
         <v>134</v>
       </c>
       <c r="L541" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M541" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M541" t="s" s="2">
+      <c r="N541" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N541" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O541" s="2"/>
       <c r="P541" t="s" s="2">
@@ -68125,7 +68137,7 @@
     </row>
     <row r="542" hidden="true">
       <c r="A542" t="s" s="2">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="B542" t="s" s="2">
         <v>504</v>
@@ -68160,7 +68172,7 @@
         <v>407</v>
       </c>
       <c r="N542" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O542" t="s" s="2">
         <v>289</v>
@@ -68244,7 +68256,7 @@
     </row>
     <row r="543" hidden="true">
       <c r="A543" t="s" s="2">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="B543" t="s" s="2">
         <v>505</v>
@@ -68270,7 +68282,7 @@
         <v>19</v>
       </c>
       <c r="K543" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L543" t="s" s="2">
         <v>507</v>
@@ -68363,7 +68375,7 @@
     </row>
     <row r="544" hidden="true">
       <c r="A544" t="s" s="2">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="B544" t="s" s="2">
         <v>511</v>
@@ -68411,7 +68423,7 @@
         <v>19</v>
       </c>
       <c r="S544" t="s" s="2">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="T544" t="s" s="2">
         <v>19</v>
@@ -68482,7 +68494,7 @@
     </row>
     <row r="545" hidden="true">
       <c r="A545" t="s" s="2">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="B545" t="s" s="2">
         <v>518</v>
@@ -68599,7 +68611,7 @@
     </row>
     <row r="546" hidden="true">
       <c r="A546" t="s" s="2">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="B546" t="s" s="2">
         <v>522</v>
@@ -68716,7 +68728,7 @@
     </row>
     <row r="547" hidden="true">
       <c r="A547" t="s" s="2">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="B547" t="s" s="2">
         <v>527</v>
@@ -68727,7 +68739,7 @@
       </c>
       <c r="E547" s="2"/>
       <c r="F547" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G547" t="s" s="2">
         <v>89</v>
@@ -68833,7 +68845,7 @@
     </row>
     <row r="548" hidden="true">
       <c r="A548" t="s" s="2">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="B548" t="s" s="2">
         <v>533</v>
@@ -68896,7 +68908,7 @@
         <v>19</v>
       </c>
       <c r="X548" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y548" t="s" s="2">
         <v>538</v>
@@ -68952,7 +68964,7 @@
     </row>
     <row r="549" hidden="true">
       <c r="A549" t="s" s="2">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="B549" t="s" s="2">
         <v>541</v>
@@ -69071,7 +69083,7 @@
     </row>
     <row r="550" hidden="true">
       <c r="A550" t="s" s="2">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="B550" t="s" s="2">
         <v>549</v>
@@ -69188,7 +69200,7 @@
     </row>
     <row r="551" hidden="true">
       <c r="A551" t="s" s="2">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="B551" t="s" s="2">
         <v>556</v>
@@ -69307,7 +69319,7 @@
     </row>
     <row r="552" hidden="true">
       <c r="A552" t="s" s="2">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="B552" t="s" s="2">
         <v>564</v>
@@ -69424,13 +69436,13 @@
     </row>
     <row r="553" hidden="true">
       <c r="A553" t="s" s="2">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="B553" t="s" s="2">
         <v>494</v>
       </c>
       <c r="C553" t="s" s="2">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="D553" t="s" s="2">
         <v>19</v>
@@ -69455,10 +69467,10 @@
         <v>394</v>
       </c>
       <c r="L553" t="s" s="2">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="M553" t="s" s="2">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="N553" s="2"/>
       <c r="O553" s="2"/>
@@ -69541,7 +69553,7 @@
     </row>
     <row r="554" hidden="true">
       <c r="A554" t="s" s="2">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="B554" t="s" s="2">
         <v>502</v>
@@ -69567,7 +69579,7 @@
         <v>19</v>
       </c>
       <c r="K554" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L554" t="s" s="2">
         <v>150</v>
@@ -69656,14 +69668,14 @@
     </row>
     <row r="555" hidden="true">
       <c r="A555" t="s" s="2">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="B555" t="s" s="2">
         <v>503</v>
       </c>
       <c r="C555" s="2"/>
       <c r="D555" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E555" s="2"/>
       <c r="F555" t="s" s="2">
@@ -69685,13 +69697,13 @@
         <v>134</v>
       </c>
       <c r="L555" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M555" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M555" t="s" s="2">
+      <c r="N555" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N555" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O555" s="2"/>
       <c r="P555" t="s" s="2">
@@ -69773,7 +69785,7 @@
     </row>
     <row r="556" hidden="true">
       <c r="A556" t="s" s="2">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="B556" t="s" s="2">
         <v>504</v>
@@ -69808,7 +69820,7 @@
         <v>407</v>
       </c>
       <c r="N556" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O556" t="s" s="2">
         <v>289</v>
@@ -69892,7 +69904,7 @@
     </row>
     <row r="557" hidden="true">
       <c r="A557" t="s" s="2">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B557" t="s" s="2">
         <v>505</v>
@@ -69918,7 +69930,7 @@
         <v>19</v>
       </c>
       <c r="K557" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L557" t="s" s="2">
         <v>507</v>
@@ -70011,7 +70023,7 @@
     </row>
     <row r="558" hidden="true">
       <c r="A558" t="s" s="2">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="B558" t="s" s="2">
         <v>511</v>
@@ -70059,7 +70071,7 @@
         <v>19</v>
       </c>
       <c r="S558" t="s" s="2">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="T558" t="s" s="2">
         <v>19</v>
@@ -70130,7 +70142,7 @@
     </row>
     <row r="559" hidden="true">
       <c r="A559" t="s" s="2">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="B559" t="s" s="2">
         <v>518</v>
@@ -70247,7 +70259,7 @@
     </row>
     <row r="560" hidden="true">
       <c r="A560" t="s" s="2">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="B560" t="s" s="2">
         <v>522</v>
@@ -70364,7 +70376,7 @@
     </row>
     <row r="561" hidden="true">
       <c r="A561" t="s" s="2">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="B561" t="s" s="2">
         <v>527</v>
@@ -70375,7 +70387,7 @@
       </c>
       <c r="E561" s="2"/>
       <c r="F561" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G561" t="s" s="2">
         <v>89</v>
@@ -70481,7 +70493,7 @@
     </row>
     <row r="562" hidden="true">
       <c r="A562" t="s" s="2">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="B562" t="s" s="2">
         <v>533</v>
@@ -70544,7 +70556,7 @@
         <v>19</v>
       </c>
       <c r="X562" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y562" t="s" s="2">
         <v>538</v>
@@ -70600,7 +70612,7 @@
     </row>
     <row r="563" hidden="true">
       <c r="A563" t="s" s="2">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="B563" t="s" s="2">
         <v>541</v>
@@ -70719,7 +70731,7 @@
     </row>
     <row r="564" hidden="true">
       <c r="A564" t="s" s="2">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="B564" t="s" s="2">
         <v>549</v>
@@ -70745,7 +70757,7 @@
         <v>19</v>
       </c>
       <c r="K564" t="s" s="2">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="L564" t="s" s="2">
         <v>550</v>
@@ -70836,7 +70848,7 @@
     </row>
     <row r="565" hidden="true">
       <c r="A565" t="s" s="2">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="B565" t="s" s="2">
         <v>556</v>
@@ -70955,7 +70967,7 @@
     </row>
     <row r="566" hidden="true">
       <c r="A566" t="s" s="2">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="B566" t="s" s="2">
         <v>564</v>
@@ -71072,13 +71084,13 @@
     </row>
     <row r="567" hidden="true">
       <c r="A567" t="s" s="2">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="B567" t="s" s="2">
         <v>494</v>
       </c>
       <c r="C567" t="s" s="2">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="D567" t="s" s="2">
         <v>19</v>
@@ -71103,10 +71115,10 @@
         <v>394</v>
       </c>
       <c r="L567" t="s" s="2">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="M567" t="s" s="2">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="N567" s="2"/>
       <c r="O567" s="2"/>
@@ -71189,7 +71201,7 @@
     </row>
     <row r="568" hidden="true">
       <c r="A568" t="s" s="2">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="B568" t="s" s="2">
         <v>502</v>
@@ -71215,7 +71227,7 @@
         <v>19</v>
       </c>
       <c r="K568" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L568" t="s" s="2">
         <v>150</v>
@@ -71304,14 +71316,14 @@
     </row>
     <row r="569" hidden="true">
       <c r="A569" t="s" s="2">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="B569" t="s" s="2">
         <v>503</v>
       </c>
       <c r="C569" s="2"/>
       <c r="D569" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E569" s="2"/>
       <c r="F569" t="s" s="2">
@@ -71333,13 +71345,13 @@
         <v>134</v>
       </c>
       <c r="L569" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M569" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M569" t="s" s="2">
+      <c r="N569" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N569" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O569" s="2"/>
       <c r="P569" t="s" s="2">
@@ -71421,7 +71433,7 @@
     </row>
     <row r="570" hidden="true">
       <c r="A570" t="s" s="2">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="B570" t="s" s="2">
         <v>504</v>
@@ -71456,7 +71468,7 @@
         <v>407</v>
       </c>
       <c r="N570" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O570" t="s" s="2">
         <v>289</v>
@@ -71540,7 +71552,7 @@
     </row>
     <row r="571" hidden="true">
       <c r="A571" t="s" s="2">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="B571" t="s" s="2">
         <v>505</v>
@@ -71566,7 +71578,7 @@
         <v>19</v>
       </c>
       <c r="K571" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L571" t="s" s="2">
         <v>507</v>
@@ -71659,7 +71671,7 @@
     </row>
     <row r="572" hidden="true">
       <c r="A572" t="s" s="2">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="B572" t="s" s="2">
         <v>511</v>
@@ -71707,7 +71719,7 @@
         <v>19</v>
       </c>
       <c r="S572" t="s" s="2">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="T572" t="s" s="2">
         <v>19</v>
@@ -71778,7 +71790,7 @@
     </row>
     <row r="573" hidden="true">
       <c r="A573" t="s" s="2">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="B573" t="s" s="2">
         <v>518</v>
@@ -71895,7 +71907,7 @@
     </row>
     <row r="574" hidden="true">
       <c r="A574" t="s" s="2">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="B574" t="s" s="2">
         <v>522</v>
@@ -72012,7 +72024,7 @@
     </row>
     <row r="575" hidden="true">
       <c r="A575" t="s" s="2">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="B575" t="s" s="2">
         <v>527</v>
@@ -72023,7 +72035,7 @@
       </c>
       <c r="E575" s="2"/>
       <c r="F575" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G575" t="s" s="2">
         <v>89</v>
@@ -72129,7 +72141,7 @@
     </row>
     <row r="576" hidden="true">
       <c r="A576" t="s" s="2">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="B576" t="s" s="2">
         <v>533</v>
@@ -72192,7 +72204,7 @@
         <v>19</v>
       </c>
       <c r="X576" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y576" t="s" s="2">
         <v>538</v>
@@ -72248,7 +72260,7 @@
     </row>
     <row r="577" hidden="true">
       <c r="A577" t="s" s="2">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="B577" t="s" s="2">
         <v>541</v>
@@ -72367,7 +72379,7 @@
     </row>
     <row r="578" hidden="true">
       <c r="A578" t="s" s="2">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B578" t="s" s="2">
         <v>549</v>
@@ -72396,10 +72408,10 @@
         <v>490</v>
       </c>
       <c r="L578" t="s" s="2">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="M578" t="s" s="2">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="N578" t="s" s="2">
         <v>552</v>
@@ -72440,7 +72452,7 @@
         <v>19</v>
       </c>
       <c r="AB578" t="s" s="2">
-        <v>774</v>
+        <v>877</v>
       </c>
       <c r="AC578" s="2"/>
       <c r="AD578" t="s" s="2">
@@ -72482,13 +72494,13 @@
     </row>
     <row r="579" hidden="true">
       <c r="A579" t="s" s="2">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="B579" t="s" s="2">
         <v>549</v>
       </c>
       <c r="C579" t="s" s="2">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="D579" t="s" s="2">
         <v>19</v>
@@ -72510,13 +72522,13 @@
         <v>19</v>
       </c>
       <c r="K579" t="s" s="2">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="L579" t="s" s="2">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="M579" t="s" s="2">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="N579" t="s" s="2">
         <v>552</v>
@@ -72601,7 +72613,7 @@
     </row>
     <row r="580" hidden="true">
       <c r="A580" t="s" s="2">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="B580" t="s" s="2">
         <v>556</v>
@@ -72720,7 +72732,7 @@
     </row>
     <row r="581" hidden="true">
       <c r="A581" t="s" s="2">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="B581" t="s" s="2">
         <v>564</v>
@@ -72837,13 +72849,13 @@
     </row>
     <row r="582" hidden="true">
       <c r="A582" t="s" s="2">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="B582" t="s" s="2">
         <v>494</v>
       </c>
       <c r="C582" t="s" s="2">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="D582" t="s" s="2">
         <v>19</v>
@@ -72868,10 +72880,10 @@
         <v>394</v>
       </c>
       <c r="L582" t="s" s="2">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="M582" t="s" s="2">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="N582" s="2"/>
       <c r="O582" s="2"/>
@@ -72954,7 +72966,7 @@
     </row>
     <row r="583" hidden="true">
       <c r="A583" t="s" s="2">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="B583" t="s" s="2">
         <v>502</v>
@@ -72980,7 +72992,7 @@
         <v>19</v>
       </c>
       <c r="K583" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L583" t="s" s="2">
         <v>150</v>
@@ -73069,14 +73081,14 @@
     </row>
     <row r="584" hidden="true">
       <c r="A584" t="s" s="2">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="B584" t="s" s="2">
         <v>503</v>
       </c>
       <c r="C584" s="2"/>
       <c r="D584" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E584" s="2"/>
       <c r="F584" t="s" s="2">
@@ -73098,13 +73110,13 @@
         <v>134</v>
       </c>
       <c r="L584" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M584" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M584" t="s" s="2">
+      <c r="N584" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N584" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O584" s="2"/>
       <c r="P584" t="s" s="2">
@@ -73186,7 +73198,7 @@
     </row>
     <row r="585" hidden="true">
       <c r="A585" t="s" s="2">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="B585" t="s" s="2">
         <v>504</v>
@@ -73221,7 +73233,7 @@
         <v>407</v>
       </c>
       <c r="N585" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O585" t="s" s="2">
         <v>289</v>
@@ -73305,7 +73317,7 @@
     </row>
     <row r="586" hidden="true">
       <c r="A586" t="s" s="2">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="B586" t="s" s="2">
         <v>505</v>
@@ -73331,7 +73343,7 @@
         <v>19</v>
       </c>
       <c r="K586" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L586" t="s" s="2">
         <v>507</v>
@@ -73424,7 +73436,7 @@
     </row>
     <row r="587" hidden="true">
       <c r="A587" t="s" s="2">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="B587" t="s" s="2">
         <v>511</v>
@@ -73472,7 +73484,7 @@
         <v>19</v>
       </c>
       <c r="S587" t="s" s="2">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="T587" t="s" s="2">
         <v>19</v>
@@ -73543,7 +73555,7 @@
     </row>
     <row r="588" hidden="true">
       <c r="A588" t="s" s="2">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="B588" t="s" s="2">
         <v>518</v>
@@ -73660,7 +73672,7 @@
     </row>
     <row r="589" hidden="true">
       <c r="A589" t="s" s="2">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="B589" t="s" s="2">
         <v>522</v>
@@ -73777,7 +73789,7 @@
     </row>
     <row r="590" hidden="true">
       <c r="A590" t="s" s="2">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="B590" t="s" s="2">
         <v>527</v>
@@ -73788,7 +73800,7 @@
       </c>
       <c r="E590" s="2"/>
       <c r="F590" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G590" t="s" s="2">
         <v>89</v>
@@ -73894,7 +73906,7 @@
     </row>
     <row r="591" hidden="true">
       <c r="A591" t="s" s="2">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="B591" t="s" s="2">
         <v>533</v>
@@ -73957,7 +73969,7 @@
         <v>19</v>
       </c>
       <c r="X591" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y591" t="s" s="2">
         <v>538</v>
@@ -74013,7 +74025,7 @@
     </row>
     <row r="592" hidden="true">
       <c r="A592" t="s" s="2">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="B592" t="s" s="2">
         <v>541</v>
@@ -74132,7 +74144,7 @@
     </row>
     <row r="593" hidden="true">
       <c r="A593" t="s" s="2">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="B593" t="s" s="2">
         <v>549</v>
@@ -74158,7 +74170,7 @@
         <v>19</v>
       </c>
       <c r="K593" t="s" s="2">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="L593" t="s" s="2">
         <v>550</v>
@@ -74249,7 +74261,7 @@
     </row>
     <row r="594" hidden="true">
       <c r="A594" t="s" s="2">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="B594" t="s" s="2">
         <v>556</v>
@@ -74368,7 +74380,7 @@
     </row>
     <row r="595" hidden="true">
       <c r="A595" t="s" s="2">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="B595" t="s" s="2">
         <v>564</v>

--- a/StructureDefinition-VunsPneumoComposition.xlsx
+++ b/StructureDefinition-VunsPneumoComposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T16:55:56+02:00</t>
+    <t>2025-05-28T10:00:58+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
